--- a/Results/6/Output.xlsx
+++ b/Results/6/Output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -495,10 +495,10 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G2" t="n">
-        <v>789.5</v>
+        <v>436.6</v>
       </c>
     </row>
     <row r="3">
@@ -526,10 +526,10 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>21</v>
+        <v>13.5</v>
       </c>
       <c r="G3" t="n">
-        <v>813</v>
+        <v>400.5</v>
       </c>
     </row>
     <row r="4">
@@ -557,10 +557,10 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="G4" t="n">
-        <v>434</v>
+        <v>270</v>
       </c>
     </row>
     <row r="5">
@@ -588,10 +588,10 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>11.33</v>
+        <v>11.6</v>
       </c>
       <c r="G5" t="n">
-        <v>1402.67</v>
+        <v>900.2</v>
       </c>
     </row>
     <row r="6">
@@ -619,10 +619,10 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G6" t="n">
-        <v>1699</v>
+        <v>823</v>
       </c>
     </row>
     <row r="7">
@@ -650,10 +650,10 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>28</v>
+        <v>12.4</v>
       </c>
       <c r="G7" t="n">
-        <v>1836</v>
+        <v>692.8</v>
       </c>
     </row>
     <row r="8">
@@ -681,10 +681,10 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>13.33</v>
+        <v>12.4</v>
       </c>
       <c r="G8" t="n">
-        <v>1127</v>
+        <v>830.4</v>
       </c>
     </row>
     <row r="9">
@@ -712,10 +712,10 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>12.67</v>
+        <v>12</v>
       </c>
       <c r="G9" t="n">
-        <v>1185</v>
+        <v>835</v>
       </c>
     </row>
     <row r="10">
@@ -743,10 +743,10 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>28</v>
+        <v>14.5</v>
       </c>
       <c r="G10" t="n">
-        <v>1033</v>
+        <v>508</v>
       </c>
     </row>
     <row r="11">
@@ -774,10 +774,10 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>15.33</v>
+        <v>12.5</v>
       </c>
       <c r="G11" t="n">
-        <v>893.33</v>
+        <v>495</v>
       </c>
     </row>
     <row r="12">
@@ -805,10 +805,10 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G12" t="n">
-        <v>890.67</v>
+        <v>487.75</v>
       </c>
     </row>
     <row r="13">
@@ -836,10 +836,10 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="G13" t="n">
-        <v>849</v>
+        <v>340.5</v>
       </c>
     </row>
     <row r="14">
@@ -867,10 +867,10 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>14.5</v>
+        <v>12</v>
       </c>
       <c r="G14" t="n">
-        <v>842.75</v>
+        <v>478.2</v>
       </c>
     </row>
     <row r="15">
@@ -898,10 +898,10 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G15" t="n">
-        <v>853.5</v>
+        <v>455</v>
       </c>
     </row>
     <row r="16">
@@ -929,10 +929,10 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>29</v>
+        <v>14.4</v>
       </c>
       <c r="G16" t="n">
-        <v>875</v>
+        <v>328.2</v>
       </c>
     </row>
     <row r="17">
@@ -960,10 +960,10 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G17" t="n">
-        <v>1218.5</v>
+        <v>981.5</v>
       </c>
     </row>
     <row r="18">
@@ -991,10 +991,10 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G18" t="n">
-        <v>2050.67</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="19">
@@ -1022,10 +1022,10 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="G19" t="n">
-        <v>2099.5</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="20">
@@ -1053,10 +1053,10 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>28</v>
+        <v>20.5</v>
       </c>
       <c r="G20" t="n">
-        <v>652</v>
+        <v>366.75</v>
       </c>
     </row>
     <row r="21">
@@ -1084,10 +1084,10 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G21" t="n">
-        <v>653</v>
+        <v>430.67</v>
       </c>
     </row>
     <row r="22">
@@ -1115,10 +1115,10 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>28</v>
+        <v>14.5</v>
       </c>
       <c r="G22" t="n">
-        <v>930.33</v>
+        <v>378.5</v>
       </c>
     </row>
     <row r="23">
@@ -1146,10 +1146,10 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>12.67</v>
+        <v>10.4</v>
       </c>
       <c r="G23" t="n">
-        <v>1700.67</v>
+        <v>970.2</v>
       </c>
     </row>
     <row r="24">
@@ -1180,7 +1180,7 @@
         <v>10</v>
       </c>
       <c r="G24" t="n">
-        <v>1547</v>
+        <v>987</v>
       </c>
     </row>
     <row r="25">
@@ -1208,10 +1208,10 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>18.5</v>
+        <v>12</v>
       </c>
       <c r="G25" t="n">
-        <v>1797.5</v>
+        <v>749.2</v>
       </c>
     </row>
     <row r="26">
@@ -1239,10 +1239,10 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>12.67</v>
+        <v>12</v>
       </c>
       <c r="G26" t="n">
-        <v>1463.33</v>
+        <v>887.33</v>
       </c>
     </row>
     <row r="27">
@@ -1270,21 +1270,21 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>15</v>
+        <v>12.4</v>
       </c>
       <c r="G27" t="n">
-        <v>1560.5</v>
+        <v>771.6</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Animal6</t>
+          <t>Animal4</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -1297,14 +1297,14 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>ASR_control</t>
+          <t>tone_in_noise</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>12.4</v>
+        <v>13.33</v>
       </c>
       <c r="G28" t="n">
-        <v>1077.4</v>
+        <v>620</v>
       </c>
     </row>
     <row r="29">
@@ -1328,14 +1328,14 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>gap_depth</t>
+          <t>ASR_control</t>
         </is>
       </c>
       <c r="F29" t="n">
         <v>12</v>
       </c>
       <c r="G29" t="n">
-        <v>1072</v>
+        <v>726</v>
       </c>
     </row>
     <row r="30">
@@ -1359,20 +1359,20 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>tone_in_noise</t>
+          <t>gap_depth</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>26.5</v>
+        <v>12.5</v>
       </c>
       <c r="G30" t="n">
-        <v>1286.75</v>
+        <v>618.75</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Animal10</t>
+          <t>Animal6</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1390,14 +1390,14 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>ASR_control</t>
+          <t>tone_in_noise</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>12</v>
+        <v>12.8</v>
       </c>
       <c r="G31" t="n">
-        <v>1159</v>
+        <v>512</v>
       </c>
     </row>
     <row r="32">
@@ -1421,14 +1421,14 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>gap_depth</t>
+          <t>ASR_control</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="G32" t="n">
-        <v>1133</v>
+        <v>675.25</v>
       </c>
     </row>
     <row r="33">
@@ -1452,25 +1452,25 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>tone_in_noise</t>
+          <t>gap_depth</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>24.67</v>
+        <v>12</v>
       </c>
       <c r="G33" t="n">
-        <v>1305.67</v>
+        <v>645.8</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Animal15</t>
+          <t>Animal10</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>female</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -1483,14 +1483,14 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>ASR_control</t>
+          <t>tone_in_noise</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>17.5</v>
+        <v>12.4</v>
       </c>
       <c r="G34" t="n">
-        <v>1545.25</v>
+        <v>543</v>
       </c>
     </row>
     <row r="35">
@@ -1514,14 +1514,76 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
+          <t>ASR_control</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="G35" t="n">
+        <v>1302.6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Animal15</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>0.027</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>May20</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
           <t>gap_depth</t>
         </is>
       </c>
-      <c r="F35" t="n">
-        <v>19.33</v>
-      </c>
-      <c r="G35" t="n">
-        <v>2057</v>
+      <c r="F36" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="G36" t="n">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Animal15</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>0.027</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>May20</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>tone_in_noise</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="G37" t="n">
+        <v>1082.75</v>
       </c>
     </row>
   </sheetData>
